--- a/flows/DBP_fund_flow_data.xlsx
+++ b/flows/DBP_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4315"/>
+  <dimension ref="A1:B4333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43585,6 +43585,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4316">
+      <c r="A4316" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B4316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4317">
+      <c r="A4317" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B4317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4318">
+      <c r="A4318" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B4318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4319">
+      <c r="A4319" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B4319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4320">
+      <c r="A4320" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B4320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4321">
+      <c r="A4321" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B4321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4322">
+      <c r="A4322" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4322" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4323">
+      <c r="A4323" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4324">
+      <c r="A4324" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4325">
+      <c r="A4325" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4326">
+      <c r="A4326" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4327">
+      <c r="A4327" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4328">
+      <c r="A4328" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4329">
+      <c r="A4329" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4330">
+      <c r="A4330" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4331">
+      <c r="A4331" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4332">
+      <c r="A4332" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4333">
+      <c r="A4333" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4333" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
